--- a/Test Case/UserInfo.xlsx
+++ b/Test Case/UserInfo.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kahei\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kahei\Desktop\ive-fyp\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{779EAFAB-8EC9-40C2-8C57-3F68A950F7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C51C33-1DE6-4CC4-B84C-8E9A07F97546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DOIvfQ4H/zfRSsWOYGsI6nUwnCjENGx5Aq9158D/FDDCDxdvcceqdHHCwa/x/7Y8qnwDwKGrQSo6t1CRmKsfGw==" workbookSaltValue="TnHeOaizAVLGloqR/V82lw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3768" yWindow="19092" windowWidth="23256" windowHeight="12456" xr2:uid="{9E734FD6-9546-4BDD-A69B-D0F258AE635A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9E734FD6-9546-4BDD-A69B-D0F258AE635A}"/>
   </bookViews>
   <sheets>
     <sheet name="Add User" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t xml:space="preserve">中文姓名 (Chinese Name) </t>
-  </si>
-  <si>
-    <t>中文地址 (Chinese Address)</t>
   </si>
   <si>
     <r>
@@ -189,470 +186,394 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
-        <family val="2"/>
+        <family val="1"/>
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>英文地址 (Address)</t>
+      <t>權限(User Role)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Lin Huafei</t>
   </si>
   <si>
     <t>林華菲</t>
   </si>
   <si>
-    <t>12345@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路123號,快活谷</t>
-  </si>
-  <si>
-    <t>123 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Zhang Wenqing</t>
   </si>
   <si>
     <t>張文晴</t>
   </si>
   <si>
-    <t>12346@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路124號,快活谷</t>
-  </si>
-  <si>
-    <t>124 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Qiu Zilu</t>
   </si>
   <si>
     <t>邱梓潞</t>
   </si>
   <si>
-    <t>12347@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路125號,快活谷</t>
-  </si>
-  <si>
-    <t>125 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Li Haixue</t>
   </si>
   <si>
     <t>李海雪</t>
   </si>
   <si>
-    <t>12348@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路126號,快活谷</t>
-  </si>
-  <si>
-    <t>126 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Chen Lungui</t>
   </si>
   <si>
     <t>陳倫貴</t>
   </si>
   <si>
-    <t>12349@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路127號,快活谷</t>
-  </si>
-  <si>
-    <t>127 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Wu Tongye</t>
   </si>
   <si>
     <t>吳彤曄</t>
   </si>
   <si>
-    <t>12350@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路128號,快活谷</t>
-  </si>
-  <si>
-    <t>128 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Huang Guoyong</t>
   </si>
   <si>
     <t>黃國庸</t>
   </si>
   <si>
-    <t>12351@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路129號,快活谷</t>
-  </si>
-  <si>
-    <t>129 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Liu Shengqun</t>
   </si>
   <si>
     <t>劉勝羣</t>
   </si>
   <si>
-    <t>12352@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路130號,快活谷</t>
-  </si>
-  <si>
-    <t>130 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Kim Baehwan</t>
   </si>
   <si>
     <t>金沛煥</t>
   </si>
   <si>
-    <t>12353@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路131號,快活谷</t>
-  </si>
-  <si>
-    <t>131 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Wang Wunan</t>
   </si>
   <si>
     <t>王悟楠</t>
   </si>
   <si>
-    <t>12354@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路132號,快活谷</t>
-  </si>
-  <si>
-    <t>132 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Chen Chuqun</t>
   </si>
   <si>
     <t>陳楚羣</t>
   </si>
   <si>
-    <t>12355@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路133號,快活谷</t>
-  </si>
-  <si>
-    <t>133 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Lin Shirun</t>
   </si>
   <si>
     <t>林實潤</t>
   </si>
   <si>
-    <t>12356@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路134號,快活谷</t>
-  </si>
-  <si>
-    <t>134 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Zheng Taoshu</t>
   </si>
   <si>
     <t>鄭濤術</t>
   </si>
   <si>
-    <t>12357@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路135號,快活谷</t>
-  </si>
-  <si>
-    <t>135 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Huang Baoming</t>
   </si>
   <si>
     <t>黃寶明</t>
   </si>
   <si>
-    <t>12358@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路136號,快活谷</t>
-  </si>
-  <si>
-    <t>136 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Hong Chengya</t>
   </si>
   <si>
     <t>洪呈婭</t>
   </si>
   <si>
-    <t>12359@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路137號,快活谷</t>
-  </si>
-  <si>
-    <t>137 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Wu Ningwen</t>
   </si>
   <si>
     <t>吳寧雯</t>
   </si>
   <si>
-    <t>12360@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路138號,快活谷</t>
-  </si>
-  <si>
-    <t>138 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Pan Weiqi</t>
   </si>
   <si>
     <t>潘威淇</t>
   </si>
   <si>
-    <t>12361@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路139號,快活谷</t>
-  </si>
-  <si>
-    <t>139 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Wu Chengrun</t>
   </si>
   <si>
     <t>巫成潤</t>
   </si>
   <si>
-    <t>12362@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路140號,快活谷</t>
-  </si>
-  <si>
-    <t>140 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Gao Chiqi</t>
   </si>
   <si>
     <t>高馳齊</t>
   </si>
   <si>
-    <t>12363@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路141號,快活谷</t>
-  </si>
-  <si>
-    <t>141 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Lin Chengzhen</t>
   </si>
   <si>
     <t>林丞蓁</t>
   </si>
   <si>
-    <t>12364@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路142號,快活谷</t>
-  </si>
-  <si>
-    <t>142 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Li Qianyan</t>
   </si>
   <si>
     <t>李千晏</t>
   </si>
   <si>
-    <t>12365@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路143號,快活谷</t>
-  </si>
-  <si>
-    <t>143 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Dong Zhengxiang</t>
   </si>
   <si>
     <t>董政湘</t>
   </si>
   <si>
-    <t>12366@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路144號,快活谷</t>
-  </si>
-  <si>
-    <t>144 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Yuan Jietian</t>
   </si>
   <si>
     <t>袁婕恬</t>
   </si>
   <si>
-    <t>12367@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路145號,快活谷</t>
-  </si>
-  <si>
-    <t>145 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Wang Xianlan</t>
   </si>
   <si>
     <t>王嫻藍</t>
   </si>
   <si>
-    <t>12368@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路146號,快活谷</t>
-  </si>
-  <si>
-    <t>146 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Qiu Juncheng</t>
   </si>
   <si>
     <t>邱均誠</t>
   </si>
   <si>
-    <t>12369@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路147號,快活谷</t>
-  </si>
-  <si>
-    <t>147 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Cai Zhiying</t>
   </si>
   <si>
     <t>蔡之瑛</t>
   </si>
   <si>
-    <t>12370@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路148號,快活谷</t>
-  </si>
-  <si>
-    <t>148 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Liu Xuanyan</t>
   </si>
   <si>
     <t>劉宣晏</t>
   </si>
   <si>
-    <t>12371@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路149號,快活谷</t>
-  </si>
-  <si>
-    <t>149 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Cheng Jingyun</t>
   </si>
   <si>
     <t>程婧昀</t>
   </si>
   <si>
-    <t>12372@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路150號,快活谷</t>
-  </si>
-  <si>
-    <t>150 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Xie Muyuan</t>
   </si>
   <si>
     <t>謝木遠</t>
   </si>
   <si>
-    <t>12373@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路151號,快活谷</t>
-  </si>
-  <si>
-    <t>151 Happy Valley Road, Happy Valley, Hong Kong</t>
-  </si>
-  <si>
     <t>Lin Xinyu</t>
   </si>
   <si>
     <t>林新雨</t>
   </si>
   <si>
-    <t>12374@gmail.com</t>
-  </si>
-  <si>
-    <t>香港快活谷路152號,快活谷</t>
-  </si>
-  <si>
-    <t>152 Happy Valley Road, Happy Valley, Hong Kong</t>
+    <t>5123 4567</t>
+  </si>
+  <si>
+    <t>6789 0123</t>
+  </si>
+  <si>
+    <t>2345 6789</t>
+  </si>
+  <si>
+    <t>9876 5432</t>
+  </si>
+  <si>
+    <t>3456 7890</t>
+  </si>
+  <si>
+    <t>4567 8901</t>
+  </si>
+  <si>
+    <t>8901 2345</t>
+  </si>
+  <si>
+    <t>1234 5678</t>
+  </si>
+  <si>
+    <t>5678 9012</t>
+  </si>
+  <si>
+    <t>6789 1234</t>
+  </si>
+  <si>
+    <t>7890 2345</t>
+  </si>
+  <si>
+    <t>8901 3456</t>
+  </si>
+  <si>
+    <t>9012 4567</t>
+  </si>
+  <si>
+    <t>0123 5678</t>
+  </si>
+  <si>
+    <t>3456 1234</t>
+  </si>
+  <si>
+    <t>4567 2345</t>
+  </si>
+  <si>
+    <t>5678 3456</t>
+  </si>
+  <si>
+    <t>6789 4567</t>
+  </si>
+  <si>
+    <t>7890 5678</t>
+  </si>
+  <si>
+    <t>8901 6789</t>
+  </si>
+  <si>
+    <t>9012 7890</t>
+  </si>
+  <si>
+    <t>0123 8901</t>
+  </si>
+  <si>
+    <t>1234 6789</t>
+  </si>
+  <si>
+    <t>2345 7890</t>
+  </si>
+  <si>
+    <t>3456 8901</t>
+  </si>
+  <si>
+    <t>4567 9012</t>
+  </si>
+  <si>
+    <t>5678 0123</t>
+  </si>
+  <si>
+    <t>6789 2345</t>
+  </si>
+  <si>
+    <t>7890 3456</t>
+  </si>
+  <si>
+    <t>8901 4567</t>
+  </si>
+  <si>
+    <t>john.doe123@example.com</t>
+  </si>
+  <si>
+    <t>sarah.smith456@example.com</t>
+  </si>
+  <si>
+    <t>michael.brown789@example.com</t>
+  </si>
+  <si>
+    <t>emily.jones001@example.com</t>
+  </si>
+  <si>
+    <t>david.wilson234@example.com</t>
+  </si>
+  <si>
+    <t>jessica.taylor567@example.com</t>
+  </si>
+  <si>
+    <t>chris.johnson890@example.com</t>
+  </si>
+  <si>
+    <t>katie.miller345@example.com</t>
+  </si>
+  <si>
+    <t>robert.davis678@example.com</t>
+  </si>
+  <si>
+    <t>laura.garcia012@example.com</t>
+  </si>
+  <si>
+    <t>daniel.martinez789@example.com</t>
+  </si>
+  <si>
+    <t>amanda.rodriguez234@example.com</t>
+  </si>
+  <si>
+    <t>joshua.lewis456@example.com</t>
+  </si>
+  <si>
+    <t>megan.walker001@example.com</t>
+  </si>
+  <si>
+    <t>ryan.hall890@example.com</t>
+  </si>
+  <si>
+    <t>olivia.allen567@example.com</t>
+  </si>
+  <si>
+    <t>tyler.young234@example.com</t>
+  </si>
+  <si>
+    <t>madison.king678@example.com</t>
+  </si>
+  <si>
+    <t>alexander.scott012@example.com</t>
+  </si>
+  <si>
+    <t>isabella.adams345@example.com</t>
+  </si>
+  <si>
+    <t>charlotte.clark789@example.com</t>
+  </si>
+  <si>
+    <t>ethan.harris456@example.com</t>
+  </si>
+  <si>
+    <t>grace.lewis001@example.com</t>
+  </si>
+  <si>
+    <t>aiden.mitchell234@example.com</t>
+  </si>
+  <si>
+    <t>lilly.parker567@example.com</t>
+  </si>
+  <si>
+    <t>lucas.carter890@example.com</t>
+  </si>
+  <si>
+    <t>zoe.wood123@example.com</t>
+  </si>
+  <si>
+    <t>noah.thompson456@example.com</t>
+  </si>
+  <si>
+    <t>sophia.morris789@example.com</t>
+  </si>
+  <si>
+    <t>jackson.rogers012@example.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -719,6 +640,22 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -778,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +740,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1140,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EACDB2-A07A-48A0-83EF-940A4459C1B1}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.08984375" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1152,739 +1094,654 @@
     <col min="2" max="2" width="22.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.90625" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="57.36328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.36328125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.08984375" style="3"/>
+    <col min="5" max="6" width="18" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.36328125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.08984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9">
-        <v>12345678</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5">
-        <v>12345679</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5">
-        <v>12345680</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5">
-        <v>12345681</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5">
-        <v>12345682</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5">
-        <v>12345683</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="5">
-        <v>12345684</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5">
-        <v>12345685</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="5">
-        <v>12345686</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="5">
-        <v>12345687</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="5">
-        <v>12345688</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="5">
-        <v>12345689</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="5">
-        <v>12345690</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="5">
-        <v>12345691</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="5">
-        <v>12345692</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="5">
-        <v>12345693</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E17" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="5">
-        <v>12345694</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="5">
-        <v>12345695</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="5">
-        <v>12345696</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="5">
-        <v>12345697</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="5">
-        <v>12345698</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="5">
-        <v>12345699</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="5">
-        <v>12345700</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F24" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="5">
-        <v>12345701</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="5">
-        <v>12345702</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="5">
-        <v>12345703</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="5">
-        <v>12345704</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="5">
-        <v>12345705</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="5">
-        <v>12345706</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="5">
-        <v>12345707</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>157</v>
+        <v>68</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E46" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E47" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9Jsej4OlE0WqodZMBUgmmQDaH+CyXmNXvSyhy91GEw20p1Ohm3oc+Fnga2bLcIoA6plETMlcz7C+wC7+0Q/I/g==" saltValue="YAvYzxGnLVMGzRSo4e68kQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g5F4mPe3OwG6VdxYPeFrB6wYE53BzYL0yPDHqbFS6VX1StNmDb7IkYioc8nhz0+8w6+tgNV3UvldJ/HMYNpcyQ==" saltValue="m+5H+qbCy/vXKLmtyc2W3w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please only input letters and spaces!_x000a_請僅輸入英文字母和空格!" sqref="B2:B31" xr:uid="{71F114F4-8C4B-446B-BBCA-CA68DB44C23C}">
       <formula1>AND(ISTEXT(B2), NOT(ISERROR(MATCH(TRUE, ISNUMBER(FIND(MID(B2,ROW(INDIRECT("1:"&amp;LEN(B2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz")), 0))))</formula1>
     </dataValidation>
-    <dataValidation type="textLength" imeMode="off" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please input 8 digit number!_x000a_請輸入八位數字!" sqref="D2:D31" xr:uid="{8F92E5BF-5B18-4226-ABBA-A9AAB5E0B2B9}">
-      <formula1>8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{2220EB65-58D7-4F25-8A57-46F0261ECFA8}">
+      <formula1>$E$46:$E$47</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
